--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.13925271805356</v>
+        <v>129.5873830454154</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.1737228163898</v>
+        <v>177.3071744745146</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.7501254107956</v>
+        <v>160.3852265948988</v>
       </c>
       <c r="AD2" t="n">
-        <v>95139.25271805355</v>
+        <v>129587.3830454154</v>
       </c>
       <c r="AE2" t="n">
-        <v>130173.7228163898</v>
+        <v>177307.1744745146</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.532967614464396e-06</v>
+        <v>6.535018100579199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.707175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>117750.1254107956</v>
+        <v>160385.2265948988</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.09800097230807</v>
+        <v>113.4607904450983</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.2253744877911</v>
+        <v>155.2420590237183</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.896496641971</v>
+        <v>140.4259747941354</v>
       </c>
       <c r="AD3" t="n">
-        <v>79098.00097230807</v>
+        <v>113460.7904450983</v>
       </c>
       <c r="AE3" t="n">
-        <v>108225.3744877911</v>
+        <v>155242.0590237183</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.073696998078788e-06</v>
+        <v>7.314568410658487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97896.496641971</v>
+        <v>140425.9747941354</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.17802808508625</v>
+        <v>111.3450474040744</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.9125799322411</v>
+        <v>152.3472060549954</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.659168794884</v>
+        <v>137.8074025297949</v>
       </c>
       <c r="AD2" t="n">
-        <v>86178.02808508625</v>
+        <v>111345.0474040744</v>
       </c>
       <c r="AE2" t="n">
-        <v>117912.5799322411</v>
+        <v>152347.2060549954</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.081768201008864e-06</v>
+        <v>7.439517475478556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.186342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>106659.168794884</v>
+        <v>137807.4025297949</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.4747656338144</v>
+        <v>109.6417849528026</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.5821011037761</v>
+        <v>150.0167272265304</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.5511075949593</v>
+        <v>135.6993413298703</v>
       </c>
       <c r="AD3" t="n">
-        <v>84474.7656338144</v>
+        <v>109641.7849528026</v>
       </c>
       <c r="AE3" t="n">
-        <v>115582.1011037761</v>
+        <v>150016.7272265304</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.235738127899677e-06</v>
+        <v>7.664923656259286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.006944444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>104551.1075949593</v>
+        <v>135699.3413298703</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.05497488763763</v>
+        <v>111.038788970025</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.5347484174539</v>
+        <v>151.9281697543607</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.08090576150498</v>
+        <v>137.4283584655714</v>
       </c>
       <c r="AD2" t="n">
-        <v>80054.97488763763</v>
+        <v>111038.788970025</v>
       </c>
       <c r="AE2" t="n">
-        <v>109534.7484174539</v>
+        <v>151928.1697543607</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.056696468367814e-06</v>
+        <v>7.823333599350753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.938657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>99080.90576150498</v>
+        <v>137428.3584655714</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.04097316161679</v>
+        <v>105.0201183508296</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8838347550853</v>
+        <v>143.6931590881738</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3012371925279</v>
+        <v>129.9792856594528</v>
       </c>
       <c r="AD2" t="n">
-        <v>81040.97316161678</v>
+        <v>105020.1183508297</v>
       </c>
       <c r="AE2" t="n">
-        <v>110883.8347550853</v>
+        <v>143693.1590881738</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.233874001041092e-06</v>
+        <v>7.909922209345345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.412037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>100301.2371925279</v>
+        <v>129979.2856594528</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.49233812683154</v>
+        <v>118.7275846753957</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.0791210315086</v>
+        <v>162.4483192441702</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.5234996559067</v>
+        <v>146.9444796531995</v>
       </c>
       <c r="AD2" t="n">
-        <v>88492.33812683154</v>
+        <v>118727.5846753957</v>
       </c>
       <c r="AE2" t="n">
-        <v>121079.1210315086</v>
+        <v>162448.3192441702</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.725937992391164e-06</v>
+        <v>7.469288240077728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109523.4996559068</v>
+        <v>146944.4796531995</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.49075486559471</v>
+        <v>114.8280514768948</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.4451988605215</v>
+        <v>157.1128058867208</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.7592009342214</v>
+        <v>142.1181802021433</v>
       </c>
       <c r="AD2" t="n">
-        <v>89490.7548655947</v>
+        <v>114828.0514768948</v>
       </c>
       <c r="AE2" t="n">
-        <v>122445.1988605215</v>
+        <v>157112.8058867208</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861672564628043e-06</v>
+        <v>7.087765773133759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>110759.2009342214</v>
+        <v>142118.1802021433</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.43070037874267</v>
+        <v>110.7679969900427</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.8900531946508</v>
+        <v>151.5576602208501</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.7342305740037</v>
+        <v>137.0932098419256</v>
       </c>
       <c r="AD3" t="n">
-        <v>85430.70037874267</v>
+        <v>110767.9969900427</v>
       </c>
       <c r="AE3" t="n">
-        <v>116890.0531946508</v>
+        <v>151557.6602208501</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184290864522294e-06</v>
+        <v>7.558106569100551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.012731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>105734.2305740037</v>
+        <v>137093.2098419256</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.16860012217973</v>
+        <v>126.8247967003339</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9503654632027</v>
+        <v>173.527281960468</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.26176918044</v>
+        <v>156.9660817172792</v>
       </c>
       <c r="AD2" t="n">
-        <v>97168.60012217972</v>
+        <v>126824.7967003339</v>
       </c>
       <c r="AE2" t="n">
-        <v>132950.3654632027</v>
+        <v>173527.281960468</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.444995343687075e-06</v>
+        <v>7.121926659671522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.391203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>120261.76918044</v>
+        <v>156966.0817172792</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.26380288877971</v>
+        <v>106.8781900086775</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.5569643352289</v>
+        <v>146.2354547027763</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8146856337952</v>
+        <v>132.2789481487327</v>
       </c>
       <c r="AD2" t="n">
-        <v>82263.80288877971</v>
+        <v>106878.1900086775</v>
       </c>
       <c r="AE2" t="n">
-        <v>112556.9643352289</v>
+        <v>146235.4547027762</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.299832793461225e-06</v>
+        <v>7.869420669294587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>101814.6856337952</v>
+        <v>132278.9481487327</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.70125410015299</v>
+        <v>108.6915211190722</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.5237484985007</v>
+        <v>148.7165343265395</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.5937626769238</v>
+        <v>134.5232370154219</v>
       </c>
       <c r="AD2" t="n">
-        <v>83701.25410015299</v>
+        <v>108691.5211190722</v>
       </c>
       <c r="AE2" t="n">
-        <v>114523.7484985006</v>
+        <v>148716.5343265395</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.252013490593591e-06</v>
+        <v>7.72278373759595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103593.7626769238</v>
+        <v>134523.2370154219</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.81869108322594</v>
+        <v>108.8089581021451</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.684430959695</v>
+        <v>148.8772167877339</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.7391098295411</v>
+        <v>134.6685841680392</v>
       </c>
       <c r="AD3" t="n">
-        <v>83818.69108322595</v>
+        <v>108808.9581021451</v>
       </c>
       <c r="AE3" t="n">
-        <v>114684.430959695</v>
+        <v>148877.216787734</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.254646078809427e-06</v>
+        <v>7.726654807138604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>103739.1098295411</v>
+        <v>134668.5841680392</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.49746294032188</v>
+        <v>118.3287894198807</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.5591094949597</v>
+        <v>161.9026699819698</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.4804857116199</v>
+        <v>146.4509063907598</v>
       </c>
       <c r="AD2" t="n">
-        <v>92497.46294032189</v>
+        <v>118328.7894198807</v>
       </c>
       <c r="AE2" t="n">
-        <v>126559.1094949597</v>
+        <v>161902.6699819698</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.686303680128203e-06</v>
+        <v>6.780015322294569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>114480.4857116199</v>
+        <v>146450.9063907598</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.01108410734111</v>
+        <v>112.1683832315141</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.7382068817562</v>
+        <v>153.473730457111</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.55126222500272</v>
+        <v>138.8264130240598</v>
       </c>
       <c r="AD3" t="n">
-        <v>78011.0841073411</v>
+        <v>112168.3832315141</v>
       </c>
       <c r="AE3" t="n">
-        <v>106738.2068817562</v>
+        <v>153473.730457111</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.144219350828906e-06</v>
+        <v>7.442515125035613e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>96551.26222500272</v>
+        <v>138826.4130240598</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.3964395766118</v>
+        <v>105.5986159301877</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.3701995861527</v>
+        <v>144.4846849977631</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.7411840467357</v>
+        <v>130.6952694471447</v>
       </c>
       <c r="AD2" t="n">
-        <v>81396.4395766118</v>
+        <v>105598.6159301877</v>
       </c>
       <c r="AE2" t="n">
-        <v>111370.1995861527</v>
+        <v>144484.6849977631</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269109765734999e-06</v>
+        <v>7.912541064864821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.29050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>100741.1840467357</v>
+        <v>130695.2694471447</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.13844203382178</v>
+        <v>111.4858691475715</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.6489518491736</v>
+        <v>152.5398845770649</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.18420977798692</v>
+        <v>137.9816920841441</v>
       </c>
       <c r="AD2" t="n">
-        <v>80138.44203382178</v>
+        <v>111485.8691475715</v>
       </c>
       <c r="AE2" t="n">
-        <v>109648.9518491736</v>
+        <v>152539.8845770649</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157208858546147e-06</v>
+        <v>7.909852320099196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.695601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>99184.20977798692</v>
+        <v>137981.6920841441</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.80992459021448</v>
+        <v>110.8147943690394</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.1454127247491</v>
+        <v>151.621690459348</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.6789031594763</v>
+        <v>137.1511291243283</v>
       </c>
       <c r="AD2" t="n">
-        <v>87809.92459021448</v>
+        <v>110814.7943690394</v>
       </c>
       <c r="AE2" t="n">
-        <v>120145.4127247492</v>
+        <v>151621.690459348</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939747418667224e-06</v>
+        <v>7.718257903343976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.22800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>108678.9031594763</v>
+        <v>137151.1291243283</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4817589349119</v>
+        <v>143.9405397307349</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0612843352315</v>
+        <v>196.9457966679416</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0259617601258</v>
+        <v>178.1495662491708</v>
       </c>
       <c r="AD2" t="n">
-        <v>107481.7589349119</v>
+        <v>143940.5397307349</v>
       </c>
       <c r="AE2" t="n">
-        <v>147061.2843352315</v>
+        <v>196945.7966679416</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.97990244264743e-06</v>
+        <v>6.485952022831495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>133025.9617601258</v>
+        <v>178149.5662491707</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.89664355994476</v>
+        <v>97.78823047760801</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.74040369161949</v>
+        <v>133.7981710516613</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.22131954985197</v>
+        <v>121.0286613934389</v>
       </c>
       <c r="AD2" t="n">
-        <v>72896.64355994476</v>
+        <v>97788.23047760801</v>
       </c>
       <c r="AE2" t="n">
-        <v>99740.40369161949</v>
+        <v>133798.1710516613</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.432346370789748e-06</v>
+        <v>8.025644253058583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>90221.31954985196</v>
+        <v>121028.6613934389</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.74589251546894</v>
+        <v>116.247589691568</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.1625335658437</v>
+        <v>159.0550806976418</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.3126356255625</v>
+        <v>143.8750870311104</v>
       </c>
       <c r="AD2" t="n">
-        <v>90745.89251546894</v>
+        <v>116247.589691568</v>
       </c>
       <c r="AE2" t="n">
-        <v>124162.5335658437</v>
+        <v>159055.0806976418</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.788163432383842e-06</v>
+        <v>6.95322257827473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.452546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>112312.6356255625</v>
+        <v>143875.0870311105</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.44881443560274</v>
+        <v>111.3940640892856</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.968884711297</v>
+        <v>152.4142728461649</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.85536308274139</v>
+        <v>137.868068560544</v>
       </c>
       <c r="AD3" t="n">
-        <v>77448.81443560275</v>
+        <v>111394.0640892856</v>
       </c>
       <c r="AE3" t="n">
-        <v>105968.884711297</v>
+        <v>152414.2728461649</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.168325524259583e-06</v>
+        <v>7.505282189013316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.97800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>95855.36308274139</v>
+        <v>137868.068560544</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.4868287472167</v>
+        <v>179.0955612227622</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.7473004657766</v>
+        <v>245.0464480033984</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.9244002108578</v>
+        <v>221.6595589308749</v>
       </c>
       <c r="AD2" t="n">
-        <v>136486.8287472167</v>
+        <v>179095.5612227622</v>
       </c>
       <c r="AE2" t="n">
-        <v>186747.3004657766</v>
+        <v>245046.4480033984</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.208904567456577e-06</v>
+        <v>5.349052730490762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>168924.4002108578</v>
+        <v>221659.5589308749</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.34634548837288</v>
+        <v>104.2593092703918</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.9334145277433</v>
+        <v>142.6521865397915</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.44152373775992</v>
+        <v>129.0376620700736</v>
       </c>
       <c r="AD2" t="n">
-        <v>80346.34548837287</v>
+        <v>104259.3092703918</v>
       </c>
       <c r="AE2" t="n">
-        <v>109933.4145277433</v>
+        <v>142652.1865397915</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.223129268994629e-06</v>
+        <v>7.949115020592092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516203703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>99441.52373775993</v>
+        <v>129037.6620700736</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.12880774496223</v>
+        <v>106.5422198580349</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.3722580238925</v>
+        <v>145.7757655207103</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6476074335758</v>
+        <v>131.8631310570251</v>
       </c>
       <c r="AD2" t="n">
-        <v>82128.80774496224</v>
+        <v>106542.2198580349</v>
       </c>
       <c r="AE2" t="n">
-        <v>112372.2580238925</v>
+        <v>145775.7655207103</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.258324164816566e-06</v>
+        <v>7.850208378285548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.226851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>101647.6074335758</v>
+        <v>131863.1310570251</v>
       </c>
     </row>
   </sheetData>
